--- a/Simulation Results.xlsx
+++ b/Simulation Results.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieljansen/Desktop/paper/LCA_Paper/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31880" yWindow="2960" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2960" windowWidth="37140" windowHeight="17880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Electricity generation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -391,6 +396,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -718,11 +728,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -736,7 +746,7 @@
     <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -753,7 +763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -768,7 +778,7 @@
         <v>0.74000000000000021</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -783,7 +793,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -798,7 +808,7 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -818,7 +828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -847,7 +857,7 @@
         <v>1434.048888888889</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -876,7 +886,7 @@
         <v>573.160659911111</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -887,7 +897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -904,7 +914,7 @@
         <v>4.8684210526315809E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -921,7 +931,7 @@
         <v>0.14078947368421055</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -938,7 +948,7 @@
         <v>3.2894736842105149E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -955,7 +965,7 @@
         <v>0.19276315789473686</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -979,7 +989,7 @@
         <v>94.345321637426906</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1004,12 +1014,12 @@
         <v>37.707938152046779</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1032,7 +1042,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1073,7 +1083,7 @@
         <v>-1.2068965517241582E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1111,7 +1121,7 @@
         <v>0.8229629629629629</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1159,7 @@
         <v>-2.5641025641025664E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1190,7 +1200,7 @@
         <v>0.82296296296296301</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1231,7 +1241,7 @@
         <v>0.55908629441624369</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1300,7 +1310,7 @@
         <v>0.88000000000000078</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1336,7 +1346,7 @@
         <v>0.92999999999999972</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1365,7 +1375,7 @@
         <v>13.88888888888884</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1386,7 +1396,7 @@
         <v>46.777777777777715</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
         <v>29</v>
       </c>
@@ -1394,12 +1404,12 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I35" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1440,7 +1450,7 @@
         <v>-1.3110876345285767E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1481,7 +1491,7 @@
         <v>0.43847487001733093</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1522,7 +1532,7 @@
         <v>-2.5641025641025529E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1563,7 +1573,7 @@
         <v>-1.020714952453879E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C40">
         <f t="shared" ref="C40:F40" si="21">C39*0.399</f>
         <v>171.67942360581296</v>
@@ -1590,7 +1600,7 @@
       </c>
       <c r="J40" s="4"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>33.768888888888853</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1648,7 +1658,7 @@
         <v>119.81888888888886</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1677,7 +1687,7 @@
         <v>3.7844383893430233</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1706,12 +1716,12 @@
         <v>157.37221616712077</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -1720,7 +1730,7 @@
         <v>34.300000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -1749,7 +1759,7 @@
         <v>772.77777777777828</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1778,12 +1788,12 @@
         <v>22.529964366699073</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -1800,7 +1810,7 @@
         <v>326.11111111111114</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -1817,7 +1827,7 @@
         <v>221.2962962962963</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -1834,28 +1844,29 @@
         <v>121.10202845897669</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <f>SUM(B57:B59)</f>
         <v>1690.2966999697244</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <f t="shared" ref="C60" si="35">SUM(C57:C59)</f>
         <v>911.55313351498648</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2">
+        <f t="shared" ref="F60" si="36">SUM(F57:F59)</f>
+        <v>668.50943586638414</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1863,17 +1874,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -1888,7 +1899,7 @@
         <v>621.4337272782318</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -1903,7 +1914,7 @@
         <v>247.95205718401451</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -1912,7 +1923,7 @@
         <v>620.16</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>32</v>
       </c>
@@ -1927,7 +1938,7 @@
         <v>5589</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -1950,7 +1961,7 @@
         <v>1552.5</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
         <v>37</v>
       </c>
@@ -1958,7 +1969,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>40</v>
       </c>
@@ -1967,7 +1978,7 @@
         <v>2.4982551346217905</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
         <v>41</v>
       </c>
@@ -1978,10 +1989,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Simulation Results.xlsx
+++ b/Simulation Results.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieljansen/Desktop/paper/LCA_Paper/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2960" windowWidth="37140" windowHeight="17880" tabRatio="500"/>
+    <workbookView xWindow="30020" yWindow="4460" windowWidth="31920" windowHeight="14700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Electricity generation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -59,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>Venetian Blind System</t>
   </si>
@@ -151,42 +146,9 @@
     <t>Solar efficiency</t>
   </si>
   <si>
-    <t>Kwh/m2</t>
-  </si>
-  <si>
     <t>m2</t>
   </si>
   <si>
-    <t>angular efficiency</t>
-  </si>
-  <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>Total energy savings</t>
-  </si>
-  <si>
-    <t>Total CO2</t>
-  </si>
-  <si>
-    <t>Grey CO2</t>
-  </si>
-  <si>
-    <t>Grey Energy (MJ)</t>
-  </si>
-  <si>
-    <t>Grey Energy (kWh)</t>
-  </si>
-  <si>
-    <t>Energy payback time</t>
-  </si>
-  <si>
-    <t>CO2 payback</t>
-  </si>
-  <si>
     <t>Compare to No facade</t>
   </si>
   <si>
@@ -212,6 +174,78 @@
   </si>
   <si>
     <t>Lighting LED</t>
+  </si>
+  <si>
+    <t>South Facade Receives</t>
+  </si>
+  <si>
+    <t>kWh/m2/year</t>
+  </si>
+  <si>
+    <t>Panel Gap Fraction</t>
+  </si>
+  <si>
+    <t>Panel Size</t>
+  </si>
+  <si>
+    <t>PV Panel Coverage</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Total area including gap</t>
+  </si>
+  <si>
+    <t>utility factor</t>
+  </si>
+  <si>
+    <t>Irradtion on active PV</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Total Power</t>
+  </si>
+  <si>
+    <t>kwH/m2/year</t>
+  </si>
+  <si>
+    <t>Static ASF</t>
+  </si>
+  <si>
+    <t>Active ASF</t>
+  </si>
+  <si>
+    <t>self shading loss</t>
+  </si>
+  <si>
+    <t>Angle losses</t>
+  </si>
+  <si>
+    <t>Flat mounted CIGS</t>
+  </si>
+  <si>
+    <t>Power before shading and bad angle losses</t>
+  </si>
+  <si>
+    <t>m2/m2</t>
+  </si>
+  <si>
+    <t>Total Facade Area</t>
+  </si>
+  <si>
+    <t>kWh/year</t>
+  </si>
+  <si>
+    <t>Flat mounted CdTe</t>
+  </si>
+  <si>
+    <t>Flat mounted PolySi</t>
+  </si>
+  <si>
+    <t>Losses due to suboptimal solar tracking angle</t>
   </si>
 </sst>
 </file>
@@ -304,7 +338,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -344,6 +378,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -353,7 +401,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="33" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="38"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -372,6 +420,13 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="38" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -391,6 +446,13 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="33" builtinId="5"/>
   </cellStyles>
@@ -728,11 +790,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -746,7 +808,7 @@
     <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -763,7 +825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -778,7 +840,7 @@
         <v>0.74000000000000021</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -793,7 +855,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -808,7 +870,7 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -828,7 +890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -857,7 +919,7 @@
         <v>1434.048888888889</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -886,7 +948,7 @@
         <v>573.160659911111</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -897,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -914,7 +976,7 @@
         <v>4.8684210526315809E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -931,7 +993,7 @@
         <v>0.14078947368421055</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -948,7 +1010,7 @@
         <v>3.2894736842105149E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -965,7 +1027,7 @@
         <v>0.19276315789473686</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -989,7 +1051,7 @@
         <v>94.345321637426906</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1014,12 +1076,12 @@
         <v>37.707938152046779</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1039,10 +1101,10 @@
         <v>5</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1145,7 @@
         <v>-1.2068965517241582E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1121,7 +1183,7 @@
         <v>0.8229629629629629</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1159,7 +1221,7 @@
         <v>-2.5641025641025664E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1200,7 +1262,7 @@
         <v>0.82296296296296301</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1241,7 +1303,7 @@
         <v>0.55908629441624369</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1310,7 +1372,7 @@
         <v>0.88000000000000078</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1408,7 @@
         <v>0.92999999999999972</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1375,7 +1437,7 @@
         <v>13.88888888888884</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1458,7 @@
         <v>46.777777777777715</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="I34" t="s">
         <v>29</v>
       </c>
@@ -1404,12 +1466,12 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="I35" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1450,7 +1512,7 @@
         <v>-1.3110876345285767E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1491,7 +1553,7 @@
         <v>0.43847487001733093</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1532,7 +1594,7 @@
         <v>-2.5641025641025529E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1573,7 +1635,7 @@
         <v>-1.020714952453879E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="C40">
         <f t="shared" ref="C40:F40" si="21">C39*0.399</f>
         <v>171.67942360581296</v>
@@ -1600,7 +1662,7 @@
       </c>
       <c r="J40" s="4"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1629,7 +1691,7 @@
         <v>33.768888888888853</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1658,7 +1720,7 @@
         <v>119.81888888888886</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1687,7 +1749,7 @@
         <v>3.7844383893430233</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1716,23 +1778,23 @@
         <v>157.37221616712077</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B51">
         <f>4.9*7</f>
         <v>34.300000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B52">
         <f>B26*1000/3.6</f>
@@ -1759,9 +1821,9 @@
         <v>772.77777777777828</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B53">
         <f>B52/$B$51</f>
@@ -1788,14 +1850,14 @@
         <v>22.529964366699073</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B57">
         <f>B22/(4*0.0036)</f>
@@ -1810,9 +1872,9 @@
         <v>326.11111111111114</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B58">
         <f>B23/(3*0.0036)</f>
@@ -1827,9 +1889,9 @@
         <v>221.2962962962963</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B59">
         <f>B24/(3.67*0.0036)</f>
@@ -1844,7 +1906,7 @@
         <v>121.10202845897669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
         <v>16</v>
       </c>
@@ -1867,127 +1929,398 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B17:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="17" spans="2:8">
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>966</v>
+      </c>
+      <c r="D18">
+        <v>966</v>
+      </c>
+      <c r="E18">
+        <v>966</v>
+      </c>
+      <c r="F18">
+        <v>966</v>
+      </c>
+      <c r="G18">
+        <v>966</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>0.4</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.4</v>
+      </c>
+      <c r="F20">
+        <v>0.4</v>
+      </c>
+      <c r="G20">
+        <v>0.4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <f>(C20*(1+C19))^2</f>
+        <v>0.20793600000000007</v>
+      </c>
+      <c r="D21">
+        <f>(D20*(1+D19))^2</f>
+        <v>0.20793600000000007</v>
+      </c>
+      <c r="E21">
+        <f>(E20*(1+E19))^2</f>
+        <v>0.20793600000000007</v>
+      </c>
+      <c r="F21">
+        <f>(F20*(1+F19))^2</f>
+        <v>0.20793600000000007</v>
+      </c>
+      <c r="G21">
+        <f>(G20*(1+G19))^2</f>
+        <v>0.20793600000000007</v>
+      </c>
+      <c r="H21" t="s">
         <v>30</v>
       </c>
-      <c r="C2">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2">
-        <f>C6+Sheet1!G39</f>
-        <v>621.4337272782318</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <f>0.38^2</f>
+        <v>0.1444</v>
+      </c>
+      <c r="D22">
+        <f>0.38^2</f>
+        <v>0.1444</v>
+      </c>
+      <c r="E22">
+        <f>0.38^2</f>
+        <v>0.1444</v>
+      </c>
+      <c r="F22">
+        <f>0.38^2</f>
+        <v>0.1444</v>
+      </c>
+      <c r="G22">
+        <f>0.38^2</f>
+        <v>0.1444</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <f>C22/C21</f>
+        <v>0.6944444444444442</v>
+      </c>
+      <c r="D23">
+        <f>D22/D21</f>
+        <v>0.6944444444444442</v>
+      </c>
+      <c r="E23">
+        <f>E22/E21</f>
+        <v>0.6944444444444442</v>
+      </c>
+      <c r="F23">
+        <f>F22/F21</f>
+        <v>0.6944444444444442</v>
+      </c>
+      <c r="G23">
+        <f>G22/G21</f>
+        <v>0.6944444444444442</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.7</v>
+      </c>
+      <c r="E24">
+        <f>0.7*0.879</f>
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="F24">
+        <f>0.7*0.879</f>
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="G24">
+        <f>0.7*0.879</f>
+        <v>0.61529999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2">
+        <f>C23*C18</f>
+        <v>670.83333333333314</v>
+      </c>
+      <c r="D25" s="2">
+        <f>D18*D24*D23</f>
+        <v>469.58333333333314</v>
+      </c>
+      <c r="E25" s="2">
+        <f>E18*E24*E23</f>
+        <v>412.76374999999979</v>
+      </c>
+      <c r="F25" s="2">
+        <f>F18*F24*F23</f>
+        <v>412.76374999999979</v>
+      </c>
+      <c r="G25" s="2">
+        <f>G18*G24*G23</f>
+        <v>412.76374999999979</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>0.11</v>
+      </c>
+      <c r="D26">
+        <v>0.11</v>
+      </c>
+      <c r="E26">
+        <v>0.11</v>
+      </c>
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+      <c r="G26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <f>C26*C25</f>
+        <v>73.791666666666643</v>
+      </c>
+      <c r="D27">
+        <f>D26*D25</f>
+        <v>51.654166666666647</v>
+      </c>
+      <c r="E27">
+        <f>E26*E25</f>
+        <v>45.404012499999979</v>
+      </c>
+      <c r="F27">
+        <f>F26*F25</f>
+        <v>41.27637499999998</v>
+      </c>
+      <c r="G27">
+        <f>G26*G25</f>
+        <v>28.893462499999988</v>
+      </c>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28">
         <v>15.2</v>
       </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3">
-        <f>F6+Sheet1!G40</f>
-        <v>247.95205718401451</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <f>C3*C2</f>
-        <v>620.16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>0.94</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <f>5589</f>
-        <v>5589</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <f>C5*C4</f>
-        <v>582.95039999999995</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <f>C6*0.399</f>
-        <v>232.59720959999999</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6">
-        <f>K5/3.6</f>
-        <v>1552.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11">
-        <f>K6/K2</f>
-        <v>2.4982551346217905</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12">
-        <f>K8/K3</f>
-        <v>1.5083561082231336</v>
+      <c r="D28">
+        <v>15.2</v>
+      </c>
+      <c r="E28">
+        <v>15.2</v>
+      </c>
+      <c r="F28">
+        <v>15.2</v>
+      </c>
+      <c r="G28">
+        <v>15.2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>0.6</v>
+      </c>
+      <c r="D29">
+        <v>0.6</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>0.77</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2">
+        <f>C27*C28*C29*C30</f>
+        <v>518.19459999999981</v>
+      </c>
+      <c r="D31" s="2">
+        <f>D27*D28*D29*D30</f>
+        <v>471.08599999999979</v>
+      </c>
+      <c r="E31" s="2">
+        <f>E27*E28*E29*E30</f>
+        <v>690.14098999999965</v>
+      </c>
+      <c r="F31" s="2">
+        <f>F27*F28*F29*F30</f>
+        <v>627.40089999999964</v>
+      </c>
+      <c r="G31" s="2">
+        <f>G27*G28*G29*G30</f>
+        <v>439.18062999999978</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Simulation Results.xlsx
+++ b/Simulation Results.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>Venetian Blind System</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Efficiency</t>
   </si>
   <si>
-    <t>Total Power</t>
-  </si>
-  <si>
     <t>kwH/m2/year</t>
   </si>
   <si>
@@ -246,6 +243,33 @@
   </si>
   <si>
     <t>Losses due to suboptimal solar tracking angle</t>
+  </si>
+  <si>
+    <t>For the Paper Table</t>
+  </si>
+  <si>
+    <t>Losses from sub optimal angle</t>
+  </si>
+  <si>
+    <t>Self Shading Losses</t>
+  </si>
+  <si>
+    <t>Losses due to sub optimal tracking angle</t>
+  </si>
+  <si>
+    <t>Total Irradiation (kWh/m2/year)</t>
+  </si>
+  <si>
+    <t>Total Power (kWh/year)</t>
+  </si>
+  <si>
+    <t>Utility Factor (m2/m2)</t>
+  </si>
+  <si>
+    <t>Irradation of active PV  (kWh/m2/year)</t>
+  </si>
+  <si>
+    <t>\textbf{Total Power (kWh/year)}</t>
   </si>
 </sst>
 </file>
@@ -338,7 +362,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -392,6 +416,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -401,7 +427,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="33" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="38"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -427,6 +453,7 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="38" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -453,6 +480,7 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="33" builtinId="5"/>
   </cellStyles>
@@ -1939,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B17:H31"/>
+  <dimension ref="B17:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1956,19 +1984,19 @@
   <sheetData>
     <row r="17" spans="2:8">
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
         <v>61</v>
-      </c>
-      <c r="G17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -2121,12 +2149,12 @@
         <v>0.6944444444444442</v>
       </c>
       <c r="H23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2197,7 +2225,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <f>C26*C25</f>
@@ -2220,12 +2248,12 @@
         <v>28.893462499999988</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>15.2</v>
@@ -2248,7 +2276,7 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>0.6</v>
@@ -2268,7 +2296,7 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>0.77</v>
@@ -2288,7 +2316,7 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2">
         <f>C27*C28*C29*C30</f>
@@ -2311,7 +2339,212 @@
         <v>439.18062999999978</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37">
+        <f>C18</f>
+        <v>966</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:G37" si="0">D18</f>
+        <v>966</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>966</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>966</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38">
+        <f>C23</f>
+        <v>0.6944444444444442</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:G38" si="1">D23</f>
+        <v>0.6944444444444442</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0.6944444444444442</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.6944444444444442</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0.6944444444444442</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <f>1-C24</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:G39" si="2">1-D24</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0.38470000000000004</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0.38470000000000004</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0.38470000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40">
+        <f>C25</f>
+        <v>670.83333333333314</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:G40" si="3">D25</f>
+        <v>469.58333333333314</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>412.76374999999979</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>412.76374999999979</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>412.76374999999979</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <f>C26</f>
+        <v>0.11</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:G41" si="4">D26</f>
+        <v>0.11</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>0.11</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <f>1-C29</f>
+        <v>0.4</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:G42" si="5">1-D29</f>
+        <v>0.4</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43">
+        <f>C30</f>
+        <v>0.77</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:G43" si="6">D30</f>
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:G44" si="7">C31</f>
+        <v>518.19459999999981</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="7"/>
+        <v>471.08599999999979</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>690.14098999999965</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="7"/>
+        <v>627.40089999999964</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="7"/>
+        <v>439.18062999999978</v>
       </c>
     </row>
   </sheetData>

--- a/Simulation Results.xlsx
+++ b/Simulation Results.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>Venetian Blind System</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Losses due to suboptimal solar tracking angle</t>
   </si>
   <si>
-    <t>For the Paper Table</t>
-  </si>
-  <si>
     <t>Losses from sub optimal angle</t>
   </si>
   <si>
@@ -270,15 +267,31 @@
   </si>
   <si>
     <t>\textbf{Total Power (kWh/year)}</t>
+  </si>
+  <si>
+    <t>Flat  CIGS</t>
+  </si>
+  <si>
+    <t>Flat  CdTe</t>
+  </si>
+  <si>
+    <t>Flat  PolySi</t>
+  </si>
+  <si>
+    <t>ASF</t>
+  </si>
+  <si>
+    <t>Orientated Solar Facade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -362,7 +375,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -418,16 +431,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="33" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="38"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -454,6 +481,12 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="38" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -481,6 +514,12 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="33" builtinId="5"/>
   </cellStyles>
@@ -1970,7 +2009,7 @@
   <dimension ref="B17:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C36" sqref="C36:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2316,7 +2355,7 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2">
         <f>C27*C28*C29*C30</f>
@@ -2343,106 +2382,118 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" t="s">
-        <v>63</v>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37">
+        <v>66</v>
+      </c>
+      <c r="C37" s="6">
         <f>C18</f>
         <v>966</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <f t="shared" ref="D37:G37" si="0">D18</f>
         <v>966</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="6">
         <f t="shared" si="0"/>
         <v>966</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6">
         <f t="shared" si="0"/>
         <v>966</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="6">
         <f t="shared" si="0"/>
         <v>966</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38">
+        <v>68</v>
+      </c>
+      <c r="C38" s="7">
         <f>C23</f>
         <v>0.6944444444444442</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="7">
         <f t="shared" ref="D38:G38" si="1">D23</f>
         <v>0.6944444444444442</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="7">
         <f t="shared" si="1"/>
         <v>0.6944444444444442</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="7">
         <f t="shared" si="1"/>
         <v>0.6944444444444442</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="7">
         <f t="shared" si="1"/>
         <v>0.6944444444444442</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39">
+        <v>63</v>
+      </c>
+      <c r="C39" s="7">
         <f>1-C24</f>
         <v>0</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="7">
         <f t="shared" ref="D39:G39" si="2">1-D24</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <f t="shared" si="2"/>
         <v>0.38470000000000004</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="7">
         <f t="shared" si="2"/>
         <v>0.38470000000000004</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="7">
         <f t="shared" si="2"/>
         <v>0.38470000000000004</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40">
+        <v>69</v>
+      </c>
+      <c r="C40" s="6">
         <f>C25</f>
         <v>670.83333333333314</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="6">
         <f t="shared" ref="D40:G40" si="3">D25</f>
         <v>469.58333333333314</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
         <f t="shared" si="3"/>
         <v>412.76374999999979</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6">
         <f t="shared" si="3"/>
         <v>412.76374999999979</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="6">
         <f t="shared" si="3"/>
         <v>412.76374999999979</v>
       </c>
@@ -2451,98 +2502,98 @@
       <c r="B41" t="s">
         <v>49</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="7">
         <f>C26</f>
         <v>0.11</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="7">
         <f t="shared" ref="D41:G41" si="4">D26</f>
         <v>0.11</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="7">
         <f t="shared" si="4"/>
         <v>0.11</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="7">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="7">
         <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42">
+        <v>64</v>
+      </c>
+      <c r="C42" s="7">
         <f>1-C29</f>
         <v>0.4</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="7">
         <f t="shared" ref="D42:G42" si="5">1-D29</f>
         <v>0.4</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43">
+        <v>65</v>
+      </c>
+      <c r="C43" s="7">
         <f>C30</f>
         <v>0.77</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="7">
         <f t="shared" ref="D43:G43" si="6">D30</f>
         <v>1</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44">
+        <v>70</v>
+      </c>
+      <c r="C44" s="6">
         <f t="shared" ref="C44:G44" si="7">C31</f>
         <v>518.19459999999981</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="6">
         <f t="shared" si="7"/>
         <v>471.08599999999979</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="6">
         <f t="shared" si="7"/>
         <v>690.14098999999965</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="6">
         <f t="shared" si="7"/>
         <v>627.40089999999964</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="6">
         <f t="shared" si="7"/>
         <v>439.18062999999978</v>
       </c>

--- a/Simulation Results.xlsx
+++ b/Simulation Results.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieljansen/Desktop/paper/LCA_Paper/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30020" yWindow="4460" windowWidth="31920" windowHeight="14700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Electricity generation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -861,7 +866,7 @@
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -875,7 +880,7 @@
     <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -892,7 +897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -907,7 +912,7 @@
         <v>0.74000000000000021</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -922,7 +927,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -937,7 +942,7 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -957,7 +962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -986,7 +991,7 @@
         <v>1434.048888888889</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +1020,7 @@
         <v>573.160659911111</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1043,7 +1048,7 @@
         <v>4.8684210526315809E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1065,7 @@
         <v>0.14078947368421055</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1077,7 +1082,7 @@
         <v>3.2894736842105149E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1099,7 @@
         <v>0.19276315789473686</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>94.345321637426906</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1143,12 +1148,12 @@
         <v>37.707938152046779</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1171,7 +1176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1217,7 @@
         <v>-1.2068965517241582E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1255,7 @@
         <v>0.8229629629629629</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1293,7 @@
         <v>-2.5641025641025664E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>0.82296296296296301</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1370,7 +1375,7 @@
         <v>0.55908629441624369</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1439,7 +1444,7 @@
         <v>0.88000000000000078</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1475,7 +1480,7 @@
         <v>0.92999999999999972</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1504,7 +1509,7 @@
         <v>13.88888888888884</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1530,7 @@
         <v>46.777777777777715</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
         <v>29</v>
       </c>
@@ -1533,12 +1538,12 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I35" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>-1.3110876345285767E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1620,7 +1625,7 @@
         <v>0.43847487001733093</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1661,7 +1666,7 @@
         <v>-2.5641025641025529E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1702,7 +1707,7 @@
         <v>-1.020714952453879E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C40">
         <f t="shared" ref="C40:F40" si="21">C39*0.399</f>
         <v>171.67942360581296</v>
@@ -1729,7 +1734,7 @@
       </c>
       <c r="J40" s="4"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1758,7 +1763,7 @@
         <v>33.768888888888853</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1787,7 +1792,7 @@
         <v>119.81888888888886</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1816,7 +1821,7 @@
         <v>3.7844383893430233</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1845,12 +1850,12 @@
         <v>157.37221616712077</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -1859,7 +1864,7 @@
         <v>34.300000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -1888,7 +1893,7 @@
         <v>772.77777777777828</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -1917,12 +1922,12 @@
         <v>22.529964366699073</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -1939,7 +1944,7 @@
         <v>326.11111111111114</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -1956,7 +1961,7 @@
         <v>221.2962962962963</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -1973,7 +1978,7 @@
         <v>121.10202845897669</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>16</v>
       </c>
@@ -1996,11 +2001,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2008,11 +2008,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B17:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:G36"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -2021,7 +2021,7 @@
     <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>52</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>43</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>46</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>44</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>47</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>54</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>0.61529999999999996</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>49</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>58</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>53</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>62</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>74</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>68</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>0.6944444444444442</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>63</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0.38470000000000004</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>412.76374999999979</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>49</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>64</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>65</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>70</v>
       </c>
@@ -2601,10 +2601,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Simulation Results.xlsx
+++ b/Simulation Results.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieljansen/Desktop/paper/LCA_Paper/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Electricity generation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -866,7 +861,7 @@
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -880,7 +875,7 @@
     <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -897,7 +892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -912,7 +907,7 @@
         <v>0.74000000000000021</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -927,7 +922,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -942,7 +937,7 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -962,7 +957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -991,7 +986,7 @@
         <v>1434.048888888889</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1015,7 @@
         <v>573.160659911111</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1043,7 @@
         <v>4.8684210526315809E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1065,7 +1060,7 @@
         <v>0.14078947368421055</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1082,7 +1077,7 @@
         <v>3.2894736842105149E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1099,7 +1094,7 @@
         <v>0.19276315789473686</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1123,7 +1118,7 @@
         <v>94.345321637426906</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1148,12 +1143,12 @@
         <v>37.707938152046779</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1176,7 +1171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1217,7 +1212,7 @@
         <v>-1.2068965517241582E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1250,7 @@
         <v>0.8229629629629629</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1288,7 @@
         <v>-2.5641025641025664E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1334,7 +1329,7 @@
         <v>0.82296296296296301</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1370,7 @@
         <v>0.55908629441624369</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1444,7 +1439,7 @@
         <v>0.88000000000000078</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1475,7 @@
         <v>0.92999999999999972</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1509,7 +1504,7 @@
         <v>13.88888888888884</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1530,7 +1525,7 @@
         <v>46.777777777777715</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="I34" t="s">
         <v>29</v>
       </c>
@@ -1538,12 +1533,12 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="I35" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1584,7 +1579,7 @@
         <v>-1.3110876345285767E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1625,7 +1620,7 @@
         <v>0.43847487001733093</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1666,7 +1661,7 @@
         <v>-2.5641025641025529E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1707,7 +1702,7 @@
         <v>-1.020714952453879E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="C40">
         <f t="shared" ref="C40:F40" si="21">C39*0.399</f>
         <v>171.67942360581296</v>
@@ -1734,7 +1729,7 @@
       </c>
       <c r="J40" s="4"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1763,7 +1758,7 @@
         <v>33.768888888888853</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1792,7 +1787,7 @@
         <v>119.81888888888886</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1821,7 +1816,7 @@
         <v>3.7844383893430233</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1850,12 +1845,12 @@
         <v>157.37221616712077</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -1864,7 +1859,7 @@
         <v>34.300000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -1893,7 +1888,7 @@
         <v>772.77777777777828</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -1922,12 +1917,12 @@
         <v>22.529964366699073</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -1944,7 +1939,7 @@
         <v>326.11111111111114</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -1961,7 +1956,7 @@
         <v>221.2962962962963</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -1978,7 +1973,7 @@
         <v>121.10202845897669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
         <v>16</v>
       </c>
@@ -2001,6 +1996,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2008,11 +2008,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B17:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -2021,7 +2021,7 @@
     <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="C17" t="s">
         <v>52</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8">
       <c r="B20" t="s">
         <v>43</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="B21" t="s">
         <v>46</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22" t="s">
         <v>44</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8">
       <c r="B23" t="s">
         <v>47</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24" t="s">
         <v>54</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>0.61529999999999996</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" t="s">
         <v>49</v>
       </c>
@@ -2259,10 +2259,10 @@
         <v>0.1</v>
       </c>
       <c r="G26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -2284,13 +2284,13 @@
       </c>
       <c r="G27">
         <f>G26*G25</f>
-        <v>28.893462499999988</v>
+        <v>57.786924999999975</v>
       </c>
       <c r="H27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" t="s">
         <v>58</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" t="s">
         <v>53</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30" t="s">
         <v>62</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2375,13 +2375,13 @@
       </c>
       <c r="G31" s="2">
         <f>G27*G28*G29*G30</f>
-        <v>439.18062999999978</v>
+        <v>878.36125999999956</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="C36" t="s">
         <v>74</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="B38" t="s">
         <v>68</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>0.6944444444444442</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="B39" t="s">
         <v>63</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0.38470000000000004</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>412.76374999999979</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7">
       <c r="B41" t="s">
         <v>49</v>
       </c>
@@ -2520,10 +2520,10 @@
       </c>
       <c r="G41" s="7">
         <f t="shared" si="4"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" t="s">
         <v>64</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7">
       <c r="B43" t="s">
         <v>65</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7">
       <c r="B44" t="s">
         <v>70</v>
       </c>
@@ -2595,11 +2595,16 @@
       </c>
       <c r="G44" s="6">
         <f t="shared" si="7"/>
-        <v>439.18062999999978</v>
+        <v>878.36125999999956</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Simulation Results.xlsx
+++ b/Simulation Results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="36340" yWindow="9300" windowWidth="17560" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -415,6 +415,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -454,7 +462,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -487,6 +495,10 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="38" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -520,6 +532,10 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="33" builtinId="5"/>
   </cellStyles>
@@ -857,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
@@ -2008,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B17:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2043,19 +2059,19 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>966</v>
+        <v>855</v>
       </c>
       <c r="D18">
-        <v>966</v>
+        <v>855</v>
       </c>
       <c r="E18">
-        <v>966</v>
+        <v>855</v>
       </c>
       <c r="F18">
-        <v>966</v>
+        <v>855</v>
       </c>
       <c r="G18">
-        <v>966</v>
+        <v>855</v>
       </c>
       <c r="H18" t="s">
         <v>41</v>
@@ -2220,23 +2236,23 @@
       </c>
       <c r="C25" s="2">
         <f>C23*C18</f>
-        <v>670.83333333333314</v>
+        <v>593.74999999999977</v>
       </c>
       <c r="D25" s="2">
         <f>D18*D24*D23</f>
-        <v>469.58333333333314</v>
+        <v>415.62499999999983</v>
       </c>
       <c r="E25" s="2">
         <f>E18*E24*E23</f>
-        <v>412.76374999999979</v>
+        <v>365.33437499999985</v>
       </c>
       <c r="F25" s="2">
         <f>F18*F24*F23</f>
-        <v>412.76374999999979</v>
+        <v>365.33437499999985</v>
       </c>
       <c r="G25" s="2">
         <f>G18*G24*G23</f>
-        <v>412.76374999999979</v>
+        <v>365.33437499999985</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>41</v>
@@ -2268,23 +2284,23 @@
       </c>
       <c r="C27">
         <f>C26*C25</f>
-        <v>73.791666666666643</v>
+        <v>65.312499999999972</v>
       </c>
       <c r="D27">
         <f>D26*D25</f>
-        <v>51.654166666666647</v>
+        <v>45.718749999999979</v>
       </c>
       <c r="E27">
         <f>E26*E25</f>
-        <v>45.404012499999979</v>
+        <v>40.186781249999981</v>
       </c>
       <c r="F27">
         <f>F26*F25</f>
-        <v>41.27637499999998</v>
+        <v>36.533437499999984</v>
       </c>
       <c r="G27">
         <f>G26*G25</f>
-        <v>57.786924999999975</v>
+        <v>51.146812499999982</v>
       </c>
       <c r="H27" t="s">
         <v>50</v>
@@ -2359,23 +2375,23 @@
       </c>
       <c r="C31" s="2">
         <f>C27*C28*C29*C30</f>
-        <v>518.19459999999981</v>
+        <v>458.65049999999979</v>
       </c>
       <c r="D31" s="2">
         <f>D27*D28*D29*D30</f>
-        <v>471.08599999999979</v>
+        <v>416.95499999999976</v>
       </c>
       <c r="E31" s="2">
         <f>E27*E28*E29*E30</f>
-        <v>690.14098999999965</v>
+        <v>610.83907499999964</v>
       </c>
       <c r="F31" s="2">
         <f>F27*F28*F29*F30</f>
-        <v>627.40089999999964</v>
+        <v>555.3082499999997</v>
       </c>
       <c r="G31" s="2">
         <f>G27*G28*G29*G30</f>
-        <v>878.36125999999956</v>
+        <v>777.43154999999967</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>59</v>
@@ -2404,23 +2420,23 @@
       </c>
       <c r="C37" s="6">
         <f>C18</f>
-        <v>966</v>
+        <v>855</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" ref="D37:G37" si="0">D18</f>
-        <v>966</v>
+        <v>855</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>966</v>
+        <v>855</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="0"/>
-        <v>966</v>
+        <v>855</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="0"/>
-        <v>966</v>
+        <v>855</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -2479,23 +2495,23 @@
       </c>
       <c r="C40" s="6">
         <f>C25</f>
-        <v>670.83333333333314</v>
+        <v>593.74999999999977</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" ref="D40:G40" si="3">D25</f>
-        <v>469.58333333333314</v>
+        <v>415.62499999999983</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="3"/>
-        <v>412.76374999999979</v>
+        <v>365.33437499999985</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="3"/>
-        <v>412.76374999999979</v>
+        <v>365.33437499999985</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="3"/>
-        <v>412.76374999999979</v>
+        <v>365.33437499999985</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -2579,23 +2595,23 @@
       </c>
       <c r="C44" s="6">
         <f t="shared" ref="C44:G44" si="7">C31</f>
-        <v>518.19459999999981</v>
+        <v>458.65049999999979</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="7"/>
-        <v>471.08599999999979</v>
+        <v>416.95499999999976</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" si="7"/>
-        <v>690.14098999999965</v>
+        <v>610.83907499999964</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="7"/>
-        <v>627.40089999999964</v>
+        <v>555.3082499999997</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="7"/>
-        <v>878.36125999999956</v>
+        <v>777.43154999999967</v>
       </c>
     </row>
   </sheetData>
